--- a/TH1043 rashini run worklist.xlsx
+++ b/TH1043 rashini run worklist.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Josh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabewilson/Desktop/worklist_generation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8811B1A-0047-44D9-99B8-AD737BA02D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632DDC8E-883D-0A4F-8F53-C88A4B17FD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="dTC2D3bwZTvLVANor388s1KYWbsmJu41QzhCu+KIT1oNKBIth5XerqYj/yPjcx7/skBADRTFhYicifXB+HDubw==" workbookSaltValue="Nt2hZrPEGyL7R/MIQEGWbQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{12DA0CF9-A1F3-4B47-B73A-18ED55D7EBC7}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29400" windowHeight="16800" xr2:uid="{12DA0CF9-A1F3-4B47-B73A-18ED55D7EBC7}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="77">
   <si>
     <t>Name:</t>
   </si>
@@ -229,15 +229,6 @@
     <t>Number of sample to run:</t>
   </si>
   <si>
-    <t>QC before:</t>
-  </si>
-  <si>
-    <t>QC after:</t>
-  </si>
-  <si>
-    <t>QC between:</t>
-  </si>
-  <si>
     <t>D:/method/Chao/something</t>
   </si>
   <si>
@@ -269,13 +260,22 @@
   </si>
   <si>
     <t>Frequency of QC</t>
+  </si>
+  <si>
+    <t>Non-condition before:</t>
+  </si>
+  <si>
+    <t>Non-condition after:</t>
+  </si>
+  <si>
+    <t>Non-condition middle:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -498,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -604,6 +604,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,35 +944,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A45856-9C0F-D140-AD60-2AFFFFA45290}">
   <dimension ref="A1:AV63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N8" sqref="N8:O16"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="3.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="6.5" customWidth="1"/>
-    <col min="5" max="28" width="3.375" customWidth="1"/>
-    <col min="29" max="29" width="3.375" style="3" customWidth="1"/>
+    <col min="5" max="28" width="3.33203125" customWidth="1"/>
+    <col min="29" max="29" width="3.33203125" style="3" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
     <col min="31" max="31" width="14.5" customWidth="1"/>
-    <col min="33" max="33" width="12.375" customWidth="1"/>
-    <col min="34" max="34" width="11.625" customWidth="1"/>
+    <col min="33" max="33" width="12.33203125" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" customWidth="1"/>
     <col min="35" max="35" width="42" customWidth="1"/>
-    <col min="36" max="36" width="21.125" customWidth="1"/>
-    <col min="37" max="37" width="20.875" customWidth="1"/>
-    <col min="38" max="38" width="30.875" customWidth="1"/>
-    <col min="39" max="39" width="14.875" customWidth="1"/>
-    <col min="40" max="40" width="25.875" customWidth="1"/>
-    <col min="41" max="41" width="30.125" customWidth="1"/>
-    <col min="42" max="42" width="21.875" customWidth="1"/>
-    <col min="43" max="45" width="15.375" customWidth="1"/>
+    <col min="36" max="36" width="21.1640625" customWidth="1"/>
+    <col min="37" max="37" width="20.83203125" customWidth="1"/>
+    <col min="38" max="38" width="30.83203125" customWidth="1"/>
+    <col min="39" max="39" width="14.83203125" customWidth="1"/>
+    <col min="40" max="40" width="25.83203125" customWidth="1"/>
+    <col min="41" max="41" width="30.1640625" customWidth="1"/>
+    <col min="42" max="42" width="21.83203125" customWidth="1"/>
+    <col min="43" max="45" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +994,7 @@
       <c r="AM1" s="27"/>
       <c r="AO1" s="26"/>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,7 +1020,7 @@
       <c r="AN2" s="8"/>
       <c r="AO2" s="26"/>
     </row>
-    <row r="3" spans="1:48" ht="15.95" customHeight="1">
+    <row r="3" spans="1:48" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1044,7 +1048,7 @@
       </c>
       <c r="AV3" s="41"/>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="D4" s="3"/>
@@ -1091,7 +1095,7 @@
       <c r="AU4" s="41"/>
       <c r="AV4" s="41"/>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
@@ -1192,8 +1196,10 @@
       <c r="AU5" s="41"/>
       <c r="AV5" s="41"/>
     </row>
-    <row r="6" spans="1:48">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>33</v>
+      </c>
       <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
@@ -1243,7 +1249,7 @@
       <c r="AU6" s="41"/>
       <c r="AV6" s="41"/>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D7" t="s">
         <v>24</v>
       </c>
@@ -1290,7 +1296,7 @@
       <c r="AU7" s="41"/>
       <c r="AV7" s="41"/>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>27</v>
       </c>
@@ -1367,7 +1373,7 @@
       <c r="AU8" s="41"/>
       <c r="AV8" s="41"/>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>30</v>
       </c>
@@ -1438,7 +1444,7 @@
       <c r="AU9" s="41"/>
       <c r="AV9" s="41"/>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>31</v>
       </c>
@@ -1509,7 +1515,7 @@
       <c r="AU10" s="41"/>
       <c r="AV10" s="41"/>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>32</v>
       </c>
@@ -1566,7 +1572,7 @@
       <c r="AU11" s="41"/>
       <c r="AV11" s="41"/>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>33</v>
       </c>
@@ -1623,7 +1629,7 @@
       <c r="AU12" s="41"/>
       <c r="AV12" s="41"/>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>34</v>
       </c>
@@ -1668,7 +1674,7 @@
       <c r="AU13" s="41"/>
       <c r="AV13" s="41"/>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>35</v>
       </c>
@@ -1715,7 +1721,7 @@
       <c r="AU14" s="41"/>
       <c r="AV14" s="41"/>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>36</v>
       </c>
@@ -1770,7 +1776,7 @@
       <c r="AN15" s="8"/>
       <c r="AO15" s="26"/>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>37</v>
       </c>
@@ -1813,7 +1819,7 @@
       <c r="AN16" s="8"/>
       <c r="AO16" s="26"/>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
         <v>38</v>
       </c>
@@ -1852,7 +1858,7 @@
       <c r="AN17" s="8"/>
       <c r="AO17" s="26"/>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
         <v>39</v>
       </c>
@@ -1891,7 +1897,7 @@
       <c r="AN18" s="8"/>
       <c r="AO18" s="26"/>
     </row>
-    <row r="19" spans="1:41">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D19" t="s">
         <v>40</v>
       </c>
@@ -1930,7 +1936,7 @@
       <c r="AN19" s="8"/>
       <c r="AO19" s="26"/>
     </row>
-    <row r="20" spans="1:41">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D20" t="s">
         <v>41</v>
       </c>
@@ -1969,7 +1975,7 @@
       <c r="AN20" s="8"/>
       <c r="AO20" s="26"/>
     </row>
-    <row r="21" spans="1:41">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
         <v>42</v>
       </c>
@@ -2008,7 +2014,7 @@
       <c r="AN21" s="8"/>
       <c r="AO21" s="26"/>
     </row>
-    <row r="22" spans="1:41">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="D22" s="3"/>
@@ -2047,7 +2053,7 @@
       <c r="AN22" s="8"/>
       <c r="AO22" s="26"/>
     </row>
-    <row r="23" spans="1:41">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
         <v>16</v>
       </c>
@@ -2140,7 +2146,7 @@
       <c r="AN23" s="8"/>
       <c r="AO23" s="26"/>
     </row>
-    <row r="24" spans="1:41">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="D24" t="s">
@@ -2181,7 +2187,7 @@
       <c r="AN24" s="8"/>
       <c r="AO24" s="26"/>
     </row>
-    <row r="25" spans="1:41">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>24</v>
       </c>
@@ -2220,7 +2226,7 @@
       <c r="AN25" s="8"/>
       <c r="AO25" s="26"/>
     </row>
-    <row r="26" spans="1:41">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>27</v>
       </c>
@@ -2259,7 +2265,7 @@
       <c r="AN26" s="8"/>
       <c r="AO26" s="26"/>
     </row>
-    <row r="27" spans="1:41">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>30</v>
       </c>
@@ -2298,7 +2304,7 @@
       <c r="AN27" s="8"/>
       <c r="AO27" s="26"/>
     </row>
-    <row r="28" spans="1:41">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>31</v>
       </c>
@@ -2337,7 +2343,7 @@
       <c r="AN28" s="8"/>
       <c r="AO28" s="26"/>
     </row>
-    <row r="29" spans="1:41">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>32</v>
       </c>
@@ -2376,7 +2382,7 @@
       <c r="AN29" s="8"/>
       <c r="AO29" s="26"/>
     </row>
-    <row r="30" spans="1:41">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>33</v>
       </c>
@@ -2415,7 +2421,7 @@
       <c r="AN30" s="8"/>
       <c r="AO30" s="26"/>
     </row>
-    <row r="31" spans="1:41">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>34</v>
       </c>
@@ -2454,7 +2460,7 @@
       <c r="AN31" s="8"/>
       <c r="AO31" s="26"/>
     </row>
-    <row r="32" spans="1:41">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
         <v>35</v>
       </c>
@@ -2492,7 +2498,7 @@
       <c r="AN32" s="8"/>
       <c r="AO32" s="26"/>
     </row>
-    <row r="33" spans="1:41" ht="15.95" customHeight="1">
+    <row r="33" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D33" t="s">
         <v>36</v>
       </c>
@@ -2540,7 +2546,7 @@
       <c r="AN33" s="8"/>
       <c r="AO33" s="26"/>
     </row>
-    <row r="34" spans="1:41">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
         <v>37</v>
       </c>
@@ -2577,7 +2583,7 @@
       <c r="AK34" s="42"/>
       <c r="AL34" s="42"/>
     </row>
-    <row r="35" spans="1:41" ht="15.95" customHeight="1">
+    <row r="35" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>38</v>
       </c>
@@ -2613,7 +2619,7 @@
       <c r="AG35" s="5"/>
       <c r="AK35" s="20"/>
     </row>
-    <row r="36" spans="1:41">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
         <v>39</v>
       </c>
@@ -2658,7 +2664,7 @@
       </c>
       <c r="AL36" s="42"/>
     </row>
-    <row r="37" spans="1:41" ht="15.95" customHeight="1">
+    <row r="37" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>40</v>
       </c>
@@ -2699,7 +2705,7 @@
       <c r="AK37" s="47"/>
       <c r="AL37" s="42"/>
     </row>
-    <row r="38" spans="1:41" ht="15.95" customHeight="1">
+    <row r="38" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D38" t="s">
         <v>41</v>
       </c>
@@ -2742,7 +2748,7 @@
       <c r="AK38" s="47"/>
       <c r="AL38" s="42"/>
     </row>
-    <row r="39" spans="1:41">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
         <v>42</v>
       </c>
@@ -2781,7 +2787,7 @@
       <c r="AK39" s="28"/>
       <c r="AL39" s="28"/>
     </row>
-    <row r="40" spans="1:41">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="D40" s="3"/>
@@ -2818,7 +2824,7 @@
       <c r="AJ40" s="28"/>
       <c r="AK40" s="28"/>
     </row>
-    <row r="41" spans="1:41">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A41" s="29" t="s">
         <v>16</v>
       </c>
@@ -2909,7 +2915,7 @@
       <c r="AJ41" s="28"/>
       <c r="AK41" s="28"/>
     </row>
-    <row r="42" spans="1:41">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="11"/>
       <c r="D42" t="s">
@@ -2946,7 +2952,7 @@
       <c r="AF42" s="5"/>
       <c r="AG42" s="5"/>
     </row>
-    <row r="43" spans="1:41">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
         <v>24</v>
       </c>
@@ -2981,7 +2987,7 @@
       <c r="AF43" s="5"/>
       <c r="AG43" s="5"/>
     </row>
-    <row r="44" spans="1:41">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D44" t="s">
         <v>27</v>
       </c>
@@ -3016,7 +3022,7 @@
       <c r="AF44" s="5"/>
       <c r="AG44" s="5"/>
     </row>
-    <row r="45" spans="1:41" ht="15.95" customHeight="1">
+    <row r="45" spans="1:41" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
         <v>30</v>
       </c>
@@ -3051,7 +3057,7 @@
       <c r="AF45" s="5"/>
       <c r="AG45" s="5"/>
     </row>
-    <row r="46" spans="1:41">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D46" t="s">
         <v>31</v>
       </c>
@@ -3086,7 +3092,7 @@
       <c r="AF46" s="5"/>
       <c r="AG46" s="5"/>
     </row>
-    <row r="47" spans="1:41">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
         <v>32</v>
       </c>
@@ -3121,7 +3127,7 @@
       <c r="AF47" s="5"/>
       <c r="AG47" s="5"/>
     </row>
-    <row r="48" spans="1:41">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
       <c r="D48" t="s">
         <v>33</v>
       </c>
@@ -3156,7 +3162,7 @@
       <c r="AF48" s="31"/>
       <c r="AG48" s="5"/>
     </row>
-    <row r="49" spans="1:40">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D49" t="s">
         <v>34</v>
       </c>
@@ -3191,7 +3197,7 @@
       <c r="AF49" s="31"/>
       <c r="AG49" s="5"/>
     </row>
-    <row r="50" spans="1:40">
+    <row r="50" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D50" t="s">
         <v>35</v>
       </c>
@@ -3226,7 +3232,7 @@
       <c r="AF50" s="31"/>
       <c r="AG50" s="5"/>
     </row>
-    <row r="51" spans="1:40">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
         <v>36</v>
       </c>
@@ -3261,7 +3267,7 @@
       <c r="AF51" s="11"/>
       <c r="AG51" s="11"/>
     </row>
-    <row r="52" spans="1:40">
+    <row r="52" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
         <v>37</v>
       </c>
@@ -3290,7 +3296,7 @@
       <c r="AA52" s="8"/>
       <c r="AB52" s="7"/>
     </row>
-    <row r="53" spans="1:40">
+    <row r="53" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D53" t="s">
         <v>38</v>
       </c>
@@ -3323,7 +3329,7 @@
       <c r="AM53" s="20"/>
       <c r="AN53" s="20"/>
     </row>
-    <row r="54" spans="1:40" ht="15.95" customHeight="1">
+    <row r="54" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D54" t="s">
         <v>39</v>
       </c>
@@ -3356,7 +3362,7 @@
       <c r="AM54" s="20"/>
       <c r="AN54" s="20"/>
     </row>
-    <row r="55" spans="1:40">
+    <row r="55" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>40</v>
       </c>
@@ -3389,7 +3395,7 @@
       <c r="AM55" s="20"/>
       <c r="AN55" s="20"/>
     </row>
-    <row r="56" spans="1:40">
+    <row r="56" spans="1:40" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
         <v>41</v>
       </c>
@@ -3418,7 +3424,7 @@
       <c r="AA56" s="8"/>
       <c r="AB56" s="7"/>
     </row>
-    <row r="57" spans="1:40" ht="15.95" customHeight="1">
+    <row r="57" spans="1:40" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D57" t="s">
         <v>42</v>
       </c>
@@ -3451,7 +3457,7 @@
       <c r="AM57" s="20"/>
       <c r="AN57" s="20"/>
     </row>
-    <row r="58" spans="1:40">
+    <row r="58" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="D58" s="3"/>
@@ -3484,19 +3490,19 @@
       <c r="AM58" s="20"/>
       <c r="AN58" s="20"/>
     </row>
-    <row r="59" spans="1:40">
+    <row r="59" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AK59" s="20"/>
       <c r="AL59" s="21"/>
       <c r="AM59" s="20"/>
       <c r="AN59" s="20"/>
     </row>
-    <row r="61" spans="1:40">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AE61" s="8"/>
     </row>
-    <row r="62" spans="1:40">
+    <row r="62" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AE62" s="8"/>
     </row>
-    <row r="63" spans="1:40">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.2">
       <c r="AE63" s="8"/>
     </row>
   </sheetData>
@@ -3528,33 +3534,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA40715-6F6B-5649-8058-60881427272C}">
-  <dimension ref="A1:R51"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView zoomScaleNormal="87" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.375" customWidth="1"/>
-    <col min="18" max="18" width="24.625" customWidth="1"/>
-    <col min="19" max="19" width="22.875" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.33203125" customWidth="1"/>
+    <col min="18" max="18" width="24.6640625" customWidth="1"/>
+    <col min="19" max="19" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>2</v>
       </c>
@@ -3595,16 +3601,16 @@
         <v>62</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P1" s="27" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3618,23 +3624,23 @@
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L2" s="25">
         <v>1</v>
@@ -3646,13 +3652,13 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R2" s="39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3666,23 +3672,23 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F3" s="38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L3" s="25">
         <v>1</v>
@@ -3695,7 +3701,7 @@
       <c r="P3" s="9"/>
       <c r="R3" s="26"/>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3709,23 +3715,23 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L4" s="25">
         <v>1</v>
@@ -3739,7 +3745,7 @@
       <c r="Q4" s="20"/>
       <c r="R4" s="40"/>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -3753,23 +3759,23 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L5" s="25">
         <v>1</v>
@@ -3781,13 +3787,13 @@
       <c r="O5" s="9"/>
       <c r="P5" s="9"/>
       <c r="Q5" s="33" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R5" s="39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -3801,23 +3807,23 @@
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L6" s="25">
         <v>1</v>
@@ -3829,11 +3835,11 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="34" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R6" s="14"/>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3847,23 +3853,23 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J7" s="25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L7" s="25">
         <v>1</v>
@@ -3871,17 +3877,24 @@
       <c r="M7" s="10">
         <v>18</v>
       </c>
-      <c r="N7" s="10"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="R7" s="2">
+      <c r="N7" s="10">
+        <v>4</v>
+      </c>
+      <c r="O7" s="9">
+        <v>4</v>
+      </c>
+      <c r="P7" s="9">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R7" s="49">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="S7" s="48"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -3895,23 +3908,23 @@
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J8" s="25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L8" s="25">
         <v>1</v>
@@ -3919,11 +3932,17 @@
       <c r="M8" s="10">
         <v>1</v>
       </c>
-      <c r="N8" s="10"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="N8" s="10">
+        <v>4</v>
+      </c>
+      <c r="O8" s="9">
+        <v>4</v>
+      </c>
+      <c r="P8" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -3949,7 +3968,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -3975,7 +3994,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -4001,7 +4020,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -4027,7 +4046,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -4053,7 +4072,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -4079,7 +4098,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -4105,7 +4124,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:18" ht="15" customHeight="1">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10">
         <v>15</v>
       </c>
@@ -4131,7 +4150,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -4157,7 +4176,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -4183,7 +4202,7 @@
       <c r="O18" s="9"/>
       <c r="P18" s="9"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -4209,7 +4228,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="9"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="10">
         <v>19</v>
       </c>
@@ -4235,7 +4254,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -4261,7 +4280,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="10">
         <v>21</v>
       </c>
@@ -4287,7 +4306,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -4313,7 +4332,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -4339,7 +4358,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
     </row>
-    <row r="25" spans="1:16">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -4365,7 +4384,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="10">
         <v>25</v>
       </c>
@@ -4391,7 +4410,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -4417,7 +4436,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="9"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="10">
         <v>27</v>
       </c>
@@ -4443,7 +4462,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="10">
         <v>28</v>
       </c>
@@ -4469,7 +4488,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -4495,7 +4514,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="10">
         <v>30</v>
       </c>
@@ -4521,7 +4540,7 @@
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="10">
         <v>31</v>
       </c>
@@ -4547,7 +4566,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="9"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>32</v>
       </c>
@@ -4573,7 +4592,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>33</v>
       </c>
@@ -4602,7 +4621,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>34</v>
       </c>
@@ -4631,7 +4650,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>35</v>
       </c>
@@ -4659,7 +4678,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="9"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>36</v>
       </c>
@@ -4688,7 +4707,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="9"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>37</v>
       </c>
@@ -4717,7 +4736,7 @@
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>38</v>
       </c>
@@ -4746,7 +4765,7 @@
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>39</v>
       </c>
@@ -4775,7 +4794,7 @@
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>40</v>
       </c>
@@ -4804,7 +4823,7 @@
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>41</v>
       </c>
@@ -4833,7 +4852,7 @@
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>42</v>
       </c>
@@ -4862,7 +4881,7 @@
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>43</v>
       </c>
@@ -4891,7 +4910,7 @@
       <c r="O44" s="9"/>
       <c r="P44" s="9"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>44</v>
       </c>
@@ -4920,7 +4939,7 @@
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>45</v>
       </c>
@@ -4949,7 +4968,7 @@
       <c r="O46" s="9"/>
       <c r="P46" s="9"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>46</v>
       </c>
@@ -4978,7 +4997,7 @@
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>47</v>
       </c>
@@ -5007,7 +5026,7 @@
       <c r="O48" s="9"/>
       <c r="P48" s="9"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>48</v>
       </c>
@@ -5036,7 +5055,7 @@
       <c r="O49" s="9"/>
       <c r="P49" s="9"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>49</v>
       </c>
@@ -5065,7 +5084,7 @@
       <c r="O50" s="9"/>
       <c r="P50" s="9"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -5092,9 +5111,12 @@
       <c r="P51" s="19"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C51" xr:uid="{187E9458-F80F-4040-ADAB-CFE8AE95B8DD}">
       <formula1>"Condition,QC,Blank,TrueBlank,Lib,SystemValidation,WetQC"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2" xr:uid="{8F8BF4CB-B724-4A4C-8FFE-838AC5B1F6E5}">
+      <formula1>"1 column, 2 column"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
